--- a/medicine/Enfance/Shel_Silverstein/Shel_Silverstein.xlsx
+++ b/medicine/Enfance/Shel_Silverstein/Shel_Silverstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shel Silverstein, né le 25 septembre 1930 à Chicago, Illinois (États-Unis), mort le 10 mai 1999 à Key West (Floride), est un poète, auteur de livres pour enfants, compositeur, scénariste, acteur et réalisateur américain.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1930 à Chicago, Sheldon Allan Silverstein[1] est connu pour sa poésie et ses illustrations pour enfants, ses livres se sont vendus à plus de vingt millions d'exemplaires. Il a également composé les paroles et la musique de nombreuses chansons, interprétées soit par lui-même, soit par des chanteurs comme Johnny Cash, Mick Jagger, Marianne Faithfull ou Jerry Lee Lewis. Très bon conteur et chanteur, il a également interprété nombre de ses poèmes pour enfants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1930 à Chicago, Sheldon Allan Silverstein est connu pour sa poésie et ses illustrations pour enfants, ses livres se sont vendus à plus de vingt millions d'exemplaires. Il a également composé les paroles et la musique de nombreuses chansons, interprétées soit par lui-même, soit par des chanteurs comme Johnny Cash, Mick Jagger, Marianne Faithfull ou Jerry Lee Lewis. Très bon conteur et chanteur, il a également interprété nombre de ses poèmes pour enfants.
 Son livre illustré l'Arbre généreux paraît en 1964.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Œuvres musicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Boy Named Sue, chanson chantée par le duo composé de Johnny Cash et June Carter.
 The Ballad of Lucy Jordan, une chanson créée par le groupe Dr. Hook &amp; the Medicine Show en 1974, puis reprise en 1979 par Marianne Faithfull.
@@ -577,19 +593,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Comme compositeur
-1963 : The Moving Finger
+          <t>Comme compositeur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1963 : The Moving Finger
 1970 : Ned Kelly
 1971 : Qui est Harry Kellerman? (Who Is Harry Kellerman and Why Is He Saying Those Terrible Things About Me?)
-1973 : Payday
-Comme scénariste
-1978 : Lafcadio: The Lion Who Shot Back : Narrator (voix)
-1978 : Lafcadio: The Lion Who Shot Back
-1988 : Parrain d'un jour (Things Change)
-Comme acteur
-1971 : Qui est Harry Kellerman? (Who Is Harry Kellerman and Why Is He Saying Those Terrible Things About Me?) : Bernie
-Comme réalisateur
-1978 : Lafcadio: The Lion Who Shot Back</t>
+1973 : Payday</t>
         </is>
       </c>
     </row>
@@ -614,13 +627,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1978 : Lafcadio: The Lion Who Shot Back : Narrator (voix)
+1978 : Lafcadio: The Lion Who Shot Back
+1988 : Parrain d'un jour (Things Change)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shel_Silverstein</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shel_Silverstein</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comme acteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1971 : Qui est Harry Kellerman? (Who Is Harry Kellerman and Why Is He Saying Those Terrible Things About Me?) : Bernie</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Shel_Silverstein</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shel_Silverstein</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comme réalisateur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1978 : Lafcadio: The Lion Who Shot Back</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Shel_Silverstein</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shel_Silverstein</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'Arbre généreux (The Giving Tree), trad. Michèle Poslaniec, Paris, L'École des loisirs, 1982, 59 p.  (ISBN 2-211-09415-5)
-Le Petit Bout manquant (The Missing Piece), trad. Françoise Morvan, Nantes, Éditions MeMo, 2005, 104 p.  (ISBN 978-2910391683)[2],[3]
+Le Petit Bout manquant (The Missing Piece), trad. Françoise Morvan, Nantes, Éditions MeMo, 2005, 104 p.  (ISBN 978-2910391683),
 Le Bord du monde (Where the Sidewalk Ends), trad. Françoise Morvan, Nantes, Éditions MeMo, 2012, 168 p.  (ISBN 978-2-35289-139-0)
 On a toujours besoin d'un rhinocéros…, Paris, Grasset, coll. « Jeunesse », 2015, 64 p.  (ISBN 978-2-246-78726-6)
 Si j'avais une girafe, Paris, Grasset, coll. « Jeunesse », 2016, 56 p.  (ISBN 978-2-246-86024-2)</t>
